--- a/managing/db설계.xlsx
+++ b/managing/db설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\oldEclipse\workspace\Spring_EX_02\managing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD91F2D2-F14B-45CE-9D10-3B2CC99BBECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B666D48D-DB8F-40F0-8EF7-36E3E0F9CB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="810" windowWidth="14865" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개념설계" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -839,14 +839,14 @@
         <v>58</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" ref="H3:H17" si="0">C3&amp;" "&amp;D3&amp;(IF(E3="","","("&amp;E3&amp;") "))&amp;" "&amp;F3&amp;" "&amp;G3&amp;" COMMENT '"&amp;B3&amp;"' , "</f>
-        <v xml:space="preserve">SDCd VARCHAR(1)  Not null  COMMENT '단복식구분' , </v>
+        <v xml:space="preserve">SDCd VARCHAR(2)  Not null  COMMENT '단복식구분' , </v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/managing/db설계.xlsx
+++ b/managing/db설계.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\oldEclipse\workspace\Spring_EX_02\managing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B666D48D-DB8F-40F0-8EF7-36E3E0F9CB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8084DCC-D02F-4217-82B5-F175E89C3A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="810" windowWidth="14865" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="135" windowWidth="17640" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개념설계" sheetId="1" r:id="rId1"/>
+    <sheet name="회원" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
   <si>
     <t>회원ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +412,169 @@
   </si>
   <si>
     <t>DDL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>mbrId</t>
+  </si>
+  <si>
+    <t>mbrPw</t>
+  </si>
+  <si>
+    <t>mbrEmail</t>
+  </si>
+  <si>
+    <t>mbrName</t>
+  </si>
+  <si>
+    <t>mbrMobile</t>
+  </si>
+  <si>
+    <t>regDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원패스워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원휴대전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naverId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨코치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석레슨자ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +602,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="d2"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -469,14 +641,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,13 +934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
@@ -779,28 +954,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1424,7 +1599,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="1:4">
       <c r="B65" s="2" t="s">
         <v>73</v>
       </c>
@@ -1433,6 +1608,75 @@
       </c>
       <c r="D65" s="2">
         <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1440,4 +1684,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157EBF8-9292-420D-9BAD-4914ED22DE2A}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="56.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>C2&amp;" "&amp;D2&amp;(IF(E2="","","("&amp;E2&amp;") "))&amp;" "&amp;F2&amp;" "&amp;G2&amp;" COMMENT '"&amp;B2&amp;"' , "</f>
+        <v xml:space="preserve">code int  auto_increment COMMENT '회원코드' , </v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H14" si="0">C3&amp;" "&amp;D3&amp;(IF(E3="","","("&amp;E3&amp;") "))&amp;" "&amp;F3&amp;" "&amp;G3&amp;" COMMENT '"&amp;B3&amp;"' , "</f>
+        <v xml:space="preserve">mbrId varchar(50)  Not null  COMMENT '회원ID' , </v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">mbrPw varchar(60)  Not null  COMMENT '회원패스워드' , </v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2">
+        <v>500</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">mbrEmail varchar(500)  Not null  COMMENT '회원이메일' , </v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">mbrName varchar(100)  Null  COMMENT '회원명' , </v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">mbrMobile varchar(15)  Null  COMMENT '회원휴대전화' , </v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">regDate date Null  COMMENT '등록일' , </v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">kakaoId varchar(50)  Null  COMMENT '카카오ID' , </v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">naverId varchar(50)  Null  COMMENT '네이버ID' , </v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">googleId varchar(50)  Null  COMMENT '구글ID' , </v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="2">
+        <v>500</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">nikname varchar(500)  Null  COMMENT '닉네임' , </v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">birthdate varchar(8)  Null  COMMENT '생년월일' , </v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">gender varchar(6)  Null  COMMENT '성별' , </v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408FEDF-C0F2-4DFA-82E4-487F36C759C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/managing/db설계.xlsx
+++ b/managing/db설계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\oldEclipse\workspace\Spring_EX_02\managing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8084DCC-D02F-4217-82B5-F175E89C3A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9130D-B690-45C3-B57D-8053C5E412C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="135" windowWidth="17640" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="0" windowWidth="17640" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개념설계" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
   <si>
     <t>회원ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,23 +283,478 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>게시판ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위게시글 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뎃글내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명(한글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>mbrId</t>
+  </si>
+  <si>
+    <t>mbrPw</t>
+  </si>
+  <si>
+    <t>mbrEmail</t>
+  </si>
+  <si>
+    <t>mbrName</t>
+  </si>
+  <si>
+    <t>mbrMobile</t>
+  </si>
+  <si>
+    <t>regDate</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원패스워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원휴대전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naverId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨코치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레슨일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석레슨자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repCont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repWriter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일저장명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savedFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessenFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessenDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessenCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbrName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessonDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석레슨자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위게시글 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글제목</t>
+    <t>게시글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useYn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentPostNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,63 +762,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성자ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일PATH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뎃글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뎃글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위뎃글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뎃글내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
+    <t>공지여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topPostYn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispYn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replyYn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delYn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replyNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,210 +846,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등록IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼명(한글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼명(영문)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDL문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>mbrId</t>
-  </si>
-  <si>
-    <t>mbrPw</t>
-  </si>
-  <si>
-    <t>mbrEmail</t>
-  </si>
-  <si>
-    <t>mbrName</t>
-  </si>
-  <si>
-    <t>mbrMobile</t>
-  </si>
-  <si>
-    <t>regDate</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원패스워드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원휴대전화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kakaoId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naverId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>googleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nikname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨코치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨출석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레슨일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석레슨자ID</t>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +889,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,13 +902,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -641,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +977,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,28 +1301,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -993,7 +1339,7 @@
         <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>C2&amp;" "&amp;D2&amp;(IF(E2="","","("&amp;E2&amp;") "))&amp;" "&amp;F2&amp;" "&amp;G2&amp;" COMMENT '"&amp;B2&amp;"' , "</f>
@@ -1002,7 +1348,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
@@ -1377,17 +1723,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:8">
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:8">
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -1395,288 +1741,956 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:8">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:8">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:8">
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:8">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f>C42&amp;" "&amp;D42&amp;(IF(E42="","","("&amp;E42&amp;") "))&amp;" "&amp;F42&amp;" "&amp;G42&amp;" COMMENT '"&amp;B42&amp;"' , "</f>
+        <v xml:space="preserve">boardId int  auto_increment COMMENT '게시판ID' , </v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="2">
+        <v>500</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" ref="H43:H48" si="1">C43&amp;" "&amp;D43&amp;(IF(E43="","","("&amp;E43&amp;") "))&amp;" "&amp;F43&amp;" "&amp;G43&amp;" COMMENT '"&amp;B43&amp;"' , "</f>
+        <v xml:space="preserve">boardName VARCHAR(500)    COMMENT '게시판명' , </v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="2">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">boardType VARCHAR(10)    COMMENT '게시판유형' , </v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>178</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">seq int   COMMENT '정렬순서' , </v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>175</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">regDate DATE   COMMENT '생성일시' , </v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">useYn VARCHAR(1)    COMMENT '사용여부' , </v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">modDate DATE   COMMENT '수정일시' , </v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>75</v>
+      <c r="H52" s="2" t="str">
+        <f>C52&amp;" "&amp;D52&amp;(IF(E52="","","("&amp;E52&amp;") "))&amp;" "&amp;F52&amp;" "&amp;G52&amp;" COMMENT '"&amp;B52&amp;"' , "</f>
+        <v xml:space="preserve">boardId int   COMMENT '게시판ID' , </v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>180</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" ref="H53:H85" si="2">C53&amp;" "&amp;D53&amp;(IF(E53="","","("&amp;E53&amp;") "))&amp;" "&amp;F53&amp;" "&amp;G53&amp;" COMMENT '"&amp;B53&amp;"' , "</f>
+        <v xml:space="preserve">postNo int   COMMENT '게시글번호' , </v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5"/>
       <c r="B54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">parentPostNo int   COMMENT '상위게시글 번호' , </v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5"/>
       <c r="B55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="2">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">postTitle VARCHAR(100)    COMMENT '게시글제목' , </v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">topPostYn VARCHAR(1)    COMMENT '공지여부' , </v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">dispYn VARCHAR(1)    COMMENT '전시여부' , </v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5"/>
+      <c r="B58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">replyYn VARCHAR(1)    COMMENT '댓글가능여부' , </v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5"/>
+      <c r="B59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">delYn VARCHAR(1)    COMMENT '삭제여부' , </v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5"/>
+      <c r="B60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">writer VARCHAR(30)    COMMENT '작성자ID' , </v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5"/>
+      <c r="B61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="2" t="s">
+      <c r="H61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">regDate DATE   COMMENT '작성일' , </v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5"/>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">modDate DATE   COMMENT '수정일' , </v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5"/>
+      <c r="B63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">readCnt int   COMMENT '조회수' , </v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6"/>
+      <c r="B64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="2">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">regIp VARCHAR(15)    COMMENT '등록IP' , </v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">boardId int   COMMENT '게시판ID' , </v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">postNo int   COMMENT '게시글번호' , </v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">contents TEXT   COMMENT '게시글내용' , </v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">boardId int   COMMENT '게시판ID' , </v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">postNo int   COMMENT '게시글번호' , </v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="5"/>
+      <c r="B73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">replyNo int   COMMENT '댓글번호' , </v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5"/>
+      <c r="B74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">repCont VARCHAR(1000)    COMMENT '뎃글내용' , </v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="5"/>
+      <c r="B75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2">
+        <v>30</v>
+      </c>
+      <c r="H75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">repWriter VARCHAR(30)    COMMENT '작성자ID' , </v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5"/>
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">modDate DATE   COMMENT '수정일' , </v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="5"/>
+      <c r="B77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">regDate DATE   COMMENT '작성일' , </v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6"/>
+      <c r="B78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">delYn VARCHAR(1)    COMMENT '삭제여부' , </v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">likeNo int  auto_increment COMMENT '추천번호' , </v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="2">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">loginId VARCHAR(30)    COMMENT '로그인ID' , </v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="5"/>
+      <c r="B82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">clCd VARCHAR(1)    COMMENT '구분코드' , </v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5"/>
+      <c r="B83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">boardId int   COMMENT '게시판번호' , </v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="5"/>
+      <c r="B84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">postNo int   COMMENT '게시글번호' , </v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6"/>
+      <c r="B85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">replyNo int   COMMENT '댓글번호' , </v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" s="2" t="str">
+        <f t="shared" ref="H88:H95" si="3">C88&amp;" "&amp;D88&amp;(IF(E88="","","("&amp;E88&amp;") "))&amp;" "&amp;F88&amp;" "&amp;G88&amp;" COMMENT '"&amp;B88&amp;"' , "</f>
+        <v xml:space="preserve">boardId int   COMMENT '게시판ID' , </v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">postNo int   COMMENT '게시글번호' , </v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="9"/>
+      <c r="B90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">fileSeq int   COMMENT '첨부파일ID' , </v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="9"/>
+      <c r="B91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="2">
+        <v>300</v>
+      </c>
+      <c r="H91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">fileName VARCHAR(300)    COMMENT '첨부파일명' , </v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="9"/>
+      <c r="B92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="2">
+        <v>300</v>
+      </c>
+      <c r="H92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">savedFileName VARCHAR(300)    COMMENT '파일저장명' , </v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="9"/>
+      <c r="B93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="2">
+        <v>300</v>
+      </c>
+      <c r="H93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">filePath VARCHAR(300)    COMMENT '첨부파일PATH' , </v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="9"/>
+      <c r="B94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="B65" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="H94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">fileSize bigint   COMMENT '파일크기' , </v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="10"/>
+      <c r="B95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="2">
+        <v>10</v>
+      </c>
+      <c r="H95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">fileType VARCHAR(10)    COMMENT '파일타입' , </v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="B68" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="B69" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="B71" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="B72" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="B77" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="B80" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2" t="s">
-        <v>137</v>
+      <c r="C111" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1690,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157EBF8-9292-420D-9BAD-4914ED22DE2A}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1707,28 +2721,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1736,21 +2750,21 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>C2&amp;" "&amp;D2&amp;(IF(E2="","","("&amp;E2&amp;") "))&amp;" "&amp;F2&amp;" "&amp;G2&amp;" COMMENT '"&amp;B2&amp;"' , "</f>
@@ -1762,16 +2776,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>50</v>
@@ -1790,13 +2804,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>60</v>
@@ -1816,13 +2830,13 @@
     <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>500</v>
@@ -1842,13 +2856,13 @@
     <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -1868,13 +2882,13 @@
     <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -1894,13 +2908,13 @@
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -1918,13 +2932,13 @@
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2">
         <v>50</v>
@@ -1944,13 +2958,13 @@
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
         <v>50</v>
@@ -1970,13 +2984,13 @@
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E11" s="2">
         <v>50</v>
@@ -1996,13 +3010,13 @@
     <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2">
         <v>500</v>
@@ -2022,13 +3036,13 @@
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
@@ -2048,13 +3062,13 @@
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>

--- a/managing/db설계.xlsx
+++ b/managing/db설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\oldEclipse\workspace\Spring_EX_02\managing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9130D-B690-45C3-B57D-8053C5E412C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802F67D-66CA-47AB-A910-F50ABC8901C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="0" windowWidth="17640" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="0" windowWidth="17640" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개념설계" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="208">
   <si>
     <t>회원ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,6 +851,10 @@
   </si>
   <si>
     <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1902,9 +1906,12 @@
       <c r="D52" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F52" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H52" s="2" t="str">
         <f>C52&amp;" "&amp;D52&amp;(IF(E52="","","("&amp;E52&amp;") "))&amp;" "&amp;F52&amp;" "&amp;G52&amp;" COMMENT '"&amp;B52&amp;"' , "</f>
-        <v xml:space="preserve">boardId int   COMMENT '게시판ID' , </v>
+        <v xml:space="preserve">boardId int Not Null  COMMENT '게시판ID' , </v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1920,9 +1927,12 @@
       <c r="D53" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H53" s="2" t="str">
         <f t="shared" ref="H53:H85" si="2">C53&amp;" "&amp;D53&amp;(IF(E53="","","("&amp;E53&amp;") "))&amp;" "&amp;F53&amp;" "&amp;G53&amp;" COMMENT '"&amp;B53&amp;"' , "</f>
-        <v xml:space="preserve">postNo int   COMMENT '게시글번호' , </v>
+        <v xml:space="preserve">postNo int Not Null  COMMENT '게시글번호' , </v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1936,9 +1946,12 @@
       <c r="D54" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F54" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">parentPostNo int   COMMENT '상위게시글 번호' , </v>
+        <v xml:space="preserve">parentPostNo int Not Null  COMMENT '상위게시글 번호' , </v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1955,9 +1968,12 @@
       <c r="E55" s="2">
         <v>100</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">postTitle VARCHAR(100)    COMMENT '게시글제목' , </v>
+        <v xml:space="preserve">postTitle VARCHAR(100)  Not Null  COMMENT '게시글제목' , </v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1974,9 +1990,12 @@
       <c r="E56" s="2">
         <v>1</v>
       </c>
+      <c r="F56" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">topPostYn VARCHAR(1)    COMMENT '공지여부' , </v>
+        <v xml:space="preserve">topPostYn VARCHAR(1)  Null  COMMENT '공지여부' , </v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1993,9 +2012,12 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
+      <c r="F57" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">dispYn VARCHAR(1)    COMMENT '전시여부' , </v>
+        <v xml:space="preserve">dispYn VARCHAR(1)  Null  COMMENT '전시여부' , </v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2012,9 +2034,12 @@
       <c r="E58" s="2">
         <v>1</v>
       </c>
+      <c r="F58" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">replyYn VARCHAR(1)    COMMENT '댓글가능여부' , </v>
+        <v xml:space="preserve">replyYn VARCHAR(1)  Null  COMMENT '댓글가능여부' , </v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2031,9 +2056,12 @@
       <c r="E59" s="2">
         <v>1</v>
       </c>
+      <c r="F59" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H59" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">delYn VARCHAR(1)    COMMENT '삭제여부' , </v>
+        <v xml:space="preserve">delYn VARCHAR(1)  Null  COMMENT '삭제여부' , </v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2050,9 +2078,12 @@
       <c r="E60" s="2">
         <v>30</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">writer VARCHAR(30)    COMMENT '작성자ID' , </v>
+        <v xml:space="preserve">writer VARCHAR(30)  Not Null  COMMENT '작성자ID' , </v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2066,9 +2097,12 @@
       <c r="D61" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="F61" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">regDate DATE   COMMENT '작성일' , </v>
+        <v xml:space="preserve">regDate DATE Null  COMMENT '작성일' , </v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,9 +2116,12 @@
       <c r="D62" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="F62" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H62" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">modDate DATE   COMMENT '수정일' , </v>
+        <v xml:space="preserve">modDate DATE Null  COMMENT '수정일' , </v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2098,9 +2135,12 @@
       <c r="D63" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F63" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">readCnt int   COMMENT '조회수' , </v>
+        <v xml:space="preserve">readCnt int Null  COMMENT '조회수' , </v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2117,9 +2157,12 @@
       <c r="E64" s="2">
         <v>15</v>
       </c>
+      <c r="F64" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">regIp VARCHAR(15)    COMMENT '등록IP' , </v>
+        <v xml:space="preserve">regIp VARCHAR(15)  Null  COMMENT '등록IP' , </v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2704,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157EBF8-9292-420D-9BAD-4914ED22DE2A}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/managing/db설계.xlsx
+++ b/managing/db설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\oldEclipse\workspace\Spring_EX_02\managing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802F67D-66CA-47AB-A910-F50ABC8901C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12876ADC-FEDC-498F-B00F-87B3F6BD3471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="0" windowWidth="17640" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bigint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,6 +851,10 @@
   </si>
   <si>
     <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,28 +1305,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1343,7 +1343,7 @@
         <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>C2&amp;" "&amp;D2&amp;(IF(E2="","","("&amp;E2&amp;") "))&amp;" "&amp;F2&amp;" "&amp;G2&amp;" COMMENT '"&amp;B2&amp;"' , "</f>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
@@ -1767,19 +1767,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="2" t="str">
         <f>C42&amp;" "&amp;D42&amp;(IF(E42="","","("&amp;E42&amp;") "))&amp;" "&amp;F42&amp;" "&amp;G42&amp;" COMMENT '"&amp;B42&amp;"' , "</f>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>58</v>
@@ -1810,10 +1810,10 @@
     <row r="44" spans="1:8">
       <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>58</v>
@@ -1829,13 +1829,13 @@
     <row r="45" spans="1:8">
       <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1845,10 +1845,10 @@
     <row r="46" spans="1:8">
       <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>60</v>
@@ -1861,10 +1861,10 @@
     <row r="47" spans="1:8">
       <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>58</v>
@@ -1880,10 +1880,10 @@
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>60</v>
@@ -1895,19 +1895,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H52" s="2" t="str">
         <f>C52&amp;" "&amp;D52&amp;(IF(E52="","","("&amp;E52&amp;") "))&amp;" "&amp;F52&amp;" "&amp;G52&amp;" COMMENT '"&amp;B52&amp;"' , "</f>
@@ -1916,19 +1916,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" ref="H53:H85" si="2">C53&amp;" "&amp;D53&amp;(IF(E53="","","("&amp;E53&amp;") "))&amp;" "&amp;F53&amp;" "&amp;G53&amp;" COMMENT '"&amp;B53&amp;"' , "</f>
@@ -1941,13 +1941,13 @@
         <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>76</v>
@@ -1969,7 +1969,7 @@
         <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1979,10 +1979,10 @@
     <row r="56" spans="1:8">
       <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>58</v>
@@ -2001,10 +2001,10 @@
     <row r="57" spans="1:8">
       <c r="A57" s="5"/>
       <c r="B57" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>58</v>
@@ -2023,10 +2023,10 @@
     <row r="58" spans="1:8">
       <c r="A58" s="5"/>
       <c r="B58" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>58</v>
@@ -2045,10 +2045,10 @@
     <row r="59" spans="1:8">
       <c r="A59" s="5"/>
       <c r="B59" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>58</v>
@@ -2070,7 +2070,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>76</v>
@@ -2079,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2092,36 +2092,36 @@
         <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">regDate DATE Null  COMMENT '작성일' , </v>
+        <v xml:space="preserve">regDate DATETIME Null  COMMENT '작성일' , </v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="5"/>
       <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H62" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">modDate DATE Null  COMMENT '수정일' , </v>
+        <v xml:space="preserve">modDate DATETIME Null  COMMENT '수정일' , </v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2130,10 +2130,10 @@
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>61</v>
@@ -2146,10 +2146,10 @@
     <row r="64" spans="1:8">
       <c r="A64" s="6"/>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>58</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H66" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2210,7 +2210,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>75</v>
@@ -2228,16 +2228,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2265,13 +2265,13 @@
     <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H73" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2284,7 +2284,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>76</v>
@@ -2303,7 +2303,7 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>76</v>
@@ -2319,17 +2319,17 @@
     <row r="76" spans="1:8">
       <c r="A76" s="5"/>
       <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="H76" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">modDate DATE   COMMENT '수정일' , </v>
+        <v xml:space="preserve">modDate DATETIME   COMMENT '수정일' , </v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2338,23 +2338,23 @@
         <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="H77" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">regDate DATE   COMMENT '작성일' , </v>
+        <v xml:space="preserve">regDate DATETIME   COMMENT '작성일' , </v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>58</v>
@@ -2372,19 +2372,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H80" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>58</v>
@@ -2415,10 +2415,10 @@
     <row r="82" spans="1:8">
       <c r="A82" s="5"/>
       <c r="B82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>58</v>
@@ -2434,13 +2434,13 @@
     <row r="83" spans="1:8">
       <c r="A83" s="5"/>
       <c r="B83" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H83" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2453,10 +2453,10 @@
         <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H84" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2466,13 +2466,13 @@
     <row r="85" spans="1:8">
       <c r="A85" s="6"/>
       <c r="B85" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H85" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2487,10 +2487,10 @@
         <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H88" s="2" t="str">
         <f t="shared" ref="H88:H95" si="3">C88&amp;" "&amp;D88&amp;(IF(E88="","","("&amp;E88&amp;") "))&amp;" "&amp;F88&amp;" "&amp;G88&amp;" COMMENT '"&amp;B88&amp;"' , "</f>
@@ -2499,16 +2499,16 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2521,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2537,7 +2537,7 @@
         <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>76</v>
@@ -2553,10 +2553,10 @@
     <row r="92" spans="1:8">
       <c r="A92" s="9"/>
       <c r="B92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>58</v>
@@ -2575,7 +2575,7 @@
         <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>76</v>
@@ -2591,13 +2591,13 @@
     <row r="94" spans="1:8">
       <c r="A94" s="9"/>
       <c r="B94" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2607,10 +2607,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="10"/>
       <c r="B95" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>58</v>
@@ -2625,115 +2625,115 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2764,28 +2764,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2793,21 +2793,21 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>C2&amp;" "&amp;D2&amp;(IF(E2="","","("&amp;E2&amp;") "))&amp;" "&amp;F2&amp;" "&amp;G2&amp;" COMMENT '"&amp;B2&amp;"' , "</f>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2">
         <v>50</v>
@@ -2847,13 +2847,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>60</v>
@@ -2873,13 +2873,13 @@
     <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <v>500</v>
@@ -2899,13 +2899,13 @@
     <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -2925,13 +2925,13 @@
     <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -2951,13 +2951,13 @@
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -2975,13 +2975,13 @@
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2">
         <v>50</v>
@@ -3001,13 +3001,13 @@
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2">
         <v>50</v>
@@ -3027,13 +3027,13 @@
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2">
         <v>50</v>
@@ -3053,13 +3053,13 @@
     <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2">
         <v>500</v>
@@ -3079,13 +3079,13 @@
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
@@ -3105,13 +3105,13 @@
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
